--- a/cplex_mini/max_tt_n.xlsx
+++ b/cplex_mini/max_tt_n.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\cplex_one_school\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ML lab\cplex_mini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74E84AE-7C2F-4506-B9CB-1C08C2D422D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE81704D-D2EF-42FD-9F61-BFBC9B961502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="590" yWindow="2680" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -372,51 +372,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
